--- a/document/バグ管理/バグ管理.xlsx
+++ b/document/バグ管理/バグ管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\azusato\document\バグ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72DC4A-E7AA-43BE-AB8A-9F64DF76286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D779A-4A72-4367-AE0D-AA890138529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1095" windowWidth="18300" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>pom.xmlのバージョン</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +89,34 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Junit改善</t>
+    <rPh sb="5" eb="7">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待状API,画面追加</t>
+    <rPh sb="0" eb="3">
+      <t>ショウタイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -448,6 +479,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
